--- a/asset/csv/playerData.xlsx
+++ b/asset/csv/playerData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\HAL\就職作品\Stinger\asset\csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E606822C-20C8-464E-98D7-202DEFEA9FDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B104B7F-A35B-4E1B-B044-31AB0A85FA45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7215" yWindow="870" windowWidth="21585" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2385" yWindow="1680" windowWidth="21585" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>体力</t>
     <rPh sb="0" eb="2">
@@ -58,6 +58,29 @@
     <t>回転速度</t>
     <rPh sb="0" eb="4">
       <t>カイテンソクド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パリィ成功時間 最小～</t>
+    <rPh sb="3" eb="5">
+      <t>セイコウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>サイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パリィ成功時間 ～最大</t>
+    <rPh sb="3" eb="7">
+      <t>セイコウジカン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>サイダイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -384,19 +407,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="6" max="6" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="21.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -412,8 +434,14 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>100</v>
       </c>
@@ -428,6 +456,12 @@
       </c>
       <c r="E2">
         <v>5</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0.3</v>
       </c>
     </row>
   </sheetData>

--- a/asset/csv/playerData.xlsx
+++ b/asset/csv/playerData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\HAL\就職作品\Stinger\asset\csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B104B7F-A35B-4E1B-B044-31AB0A85FA45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AED0C515-823F-4EBC-9E8D-D4C4F3408BE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2385" yWindow="1680" windowWidth="21585" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>体力</t>
     <rPh sb="0" eb="2">
@@ -80,6 +80,51 @@
       <t>セイコウジカン</t>
     </rPh>
     <rPh sb="9" eb="11">
+      <t>サイダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>回避時の移動速度倍率(移動速度 * 〇)</t>
+    <rPh sb="0" eb="2">
+      <t>カイヒ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="4" eb="8">
+      <t>イドウソクド</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>バイリツ</t>
+    </rPh>
+    <rPh sb="11" eb="15">
+      <t>イドウソクド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>回避成功時間 最小～</t>
+    <rPh sb="0" eb="2">
+      <t>カイヒ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>セイコウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>サイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>回避成功時 ～最大</t>
+    <rPh sb="0" eb="5">
+      <t>カイヒセイコウジ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
       <t>サイダイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -407,18 +452,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="6" max="7" width="21.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="35.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -440,8 +488,17 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:10">
       <c r="A2">
         <v>100</v>
       </c>
@@ -462,6 +519,15 @@
       </c>
       <c r="G2">
         <v>0.3</v>
+      </c>
+      <c r="H2">
+        <v>0.5</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0.6</v>
       </c>
     </row>
   </sheetData>

--- a/asset/csv/playerData.xlsx
+++ b/asset/csv/playerData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\HAL\就職作品\Stinger\asset\csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AED0C515-823F-4EBC-9E8D-D4C4F3408BE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F500156F-1217-4DBC-A3C6-F859785E2A08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2385" yWindow="1680" windowWidth="21585" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -455,7 +455,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -518,7 +518,7 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="H2">
         <v>0.5</v>

--- a/asset/csv/playerData.xlsx
+++ b/asset/csv/playerData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\HAL\就職作品\Stinger\asset\csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F500156F-1217-4DBC-A3C6-F859785E2A08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F542F8C2-6F27-46C5-BA19-D7EB153EC4BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2385" yWindow="1680" windowWidth="21585" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -455,7 +455,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -506,7 +506,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>6000</v>
+        <v>2000</v>
       </c>
       <c r="D2">
         <v>2200</v>
@@ -521,7 +521,7 @@
         <v>0.15</v>
       </c>
       <c r="H2">
-        <v>0.5</v>
+        <v>1.3</v>
       </c>
       <c r="I2">
         <v>0</v>

--- a/asset/csv/playerData.xlsx
+++ b/asset/csv/playerData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\HAL\就職作品\Stinger\asset\csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F542F8C2-6F27-46C5-BA19-D7EB153EC4BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C046AE24-7CE3-42EB-A82C-C2529789BFD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2385" yWindow="1680" windowWidth="21585" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3075" yWindow="2370" windowWidth="21585" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>体力</t>
     <rPh sb="0" eb="2">
@@ -126,6 +126,126 @@
     </rPh>
     <rPh sb="7" eb="9">
       <t>サイダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>基礎ステータス</t>
+    <rPh sb="0" eb="2">
+      <t>キソ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>通常攻撃</t>
+    <rPh sb="0" eb="4">
+      <t>ツウジョウコウゲキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一段階目ダメージ発生開始時間割合</t>
+    <rPh sb="0" eb="4">
+      <t>イチダンカイメ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ハッセイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ワリアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>三段階目ダメージ発生開始時間割合</t>
+    <rPh sb="0" eb="1">
+      <t>サン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>二段階目ダメージ発生開始時間割合</t>
+    <rPh sb="0" eb="1">
+      <t>ニ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>三段階目ダメージ倍率</t>
+    <rPh sb="0" eb="1">
+      <t>サン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>二段階目ダメージ倍率</t>
+    <rPh sb="0" eb="1">
+      <t>ニ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一段階目ダメージ倍率</t>
+    <rPh sb="0" eb="3">
+      <t>イチダンカイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>バイリツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一段階目キャンセル可能時間割合</t>
+    <rPh sb="0" eb="3">
+      <t>イチダンカイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ワリアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>二段階目キャンセル可能時間割合</t>
+    <rPh sb="0" eb="1">
+      <t>ニ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>三段階目キャンセル可能時間割合</t>
+    <rPh sb="0" eb="1">
+      <t>サン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブレンド速度</t>
+    <rPh sb="4" eb="6">
+      <t>ソクド</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -158,7 +278,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -166,12 +286,32 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -452,82 +592,159 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="6" max="7" width="21.875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="35.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.375" customWidth="1"/>
+    <col min="3" max="3" width="9.125" customWidth="1"/>
+    <col min="4" max="4" width="16.75" customWidth="1"/>
+    <col min="5" max="6" width="19" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="31.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="35.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="31.75" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
-      <c r="A2">
+    <row r="2" spans="1:11">
+      <c r="B2">
         <v>100</v>
       </c>
-      <c r="B2">
+      <c r="C2">
         <v>1</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>2000</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>2200</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>5</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>0</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>0.15</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>1.3</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>0</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>0.6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2">
+        <v>10</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="G4" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="H4" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="J4" s="2">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="K4" s="2">
+        <v>0.72</v>
       </c>
     </row>
   </sheetData>

--- a/asset/csv/playerData.xlsx
+++ b/asset/csv/playerData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\HAL\就職作品\Stinger\asset\csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C046AE24-7CE3-42EB-A82C-C2529789BFD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35ED673B-C664-4C40-B298-D11854FEC10D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3075" yWindow="2370" windowWidth="21585" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="2025" windowWidth="21585" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>体力</t>
     <rPh sb="0" eb="2">
@@ -62,29 +62,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>パリィ成功時間 最小～</t>
-    <rPh sb="3" eb="5">
-      <t>セイコウ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ジカン</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>サイショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>パリィ成功時間 ～最大</t>
-    <rPh sb="3" eb="7">
-      <t>セイコウジカン</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>サイダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>回避時の移動速度倍率(移動速度 * 〇)</t>
     <rPh sb="0" eb="2">
       <t>カイヒ</t>
@@ -247,6 +224,40 @@
     <rPh sb="4" eb="6">
       <t>ソクド</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パリィ攻撃</t>
+    <rPh sb="3" eb="5">
+      <t>コウゲキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パリィ成功時間_最大</t>
+    <rPh sb="3" eb="7">
+      <t>セイコウジカン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>サイダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パリィ成功時間_最小</t>
+    <rPh sb="3" eb="5">
+      <t>セイコウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>サイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>速度の減衰値</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -592,17 +603,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.375" customWidth="1"/>
-    <col min="3" max="3" width="9.125" customWidth="1"/>
+    <col min="2" max="2" width="21.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.75" customWidth="1"/>
     <col min="5" max="6" width="19" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="21.875" bestFit="1" customWidth="1"/>
@@ -614,7 +625,7 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -639,12 +650,6 @@
       </c>
       <c r="I1" t="s">
         <v>7</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -664,54 +669,48 @@
         <v>5</v>
       </c>
       <c r="G2">
+        <v>1.3</v>
+      </c>
+      <c r="H2">
         <v>0</v>
       </c>
-      <c r="H2">
-        <v>0.15</v>
-      </c>
       <c r="I2">
-        <v>1.3</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
         <v>0.6</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="F3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="I3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -746,6 +745,42 @@
       <c r="K4" s="2">
         <v>0.72</v>
       </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="D6" s="2">
+        <v>67</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/asset/csv/playerData.xlsx
+++ b/asset/csv/playerData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\HAL\就職作品\Stinger\asset\csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35ED673B-C664-4C40-B298-D11854FEC10D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{872E5E9C-D2D9-4A03-AF88-46087F7DE9B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2730" yWindow="2025" windowWidth="21585" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>体力</t>
     <rPh sb="0" eb="2">
@@ -62,51 +62,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>回避時の移動速度倍率(移動速度 * 〇)</t>
-    <rPh sb="0" eb="2">
-      <t>カイヒ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ジ</t>
-    </rPh>
-    <rPh sb="4" eb="8">
-      <t>イドウソクド</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>バイリツ</t>
-    </rPh>
-    <rPh sb="11" eb="15">
-      <t>イドウソクド</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>回避成功時間 最小～</t>
-    <rPh sb="0" eb="2">
-      <t>カイヒ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>セイコウ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ジカン</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>サイショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>回避成功時 ～最大</t>
-    <rPh sb="0" eb="5">
-      <t>カイヒセイコウジ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>サイダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>基礎ステータス</t>
     <rPh sb="0" eb="2">
       <t>キソ</t>
@@ -258,6 +213,58 @@
   </si>
   <si>
     <t>速度の減衰値</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>回避</t>
+    <rPh sb="0" eb="2">
+      <t>カイヒ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>回避時の移動速度倍率</t>
+    <rPh sb="0" eb="2">
+      <t>カイヒ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="4" eb="8">
+      <t>イドウソクド</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>バイリツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>回避成功時間_最小</t>
+    <rPh sb="0" eb="2">
+      <t>カイヒ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>セイコウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>サイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>回避成功時間_最大</t>
+    <rPh sb="0" eb="5">
+      <t>カイヒセイコウジ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>サイダイ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -603,10 +610,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -625,7 +632,7 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -641,15 +648,6 @@
       </c>
       <c r="F1" t="s">
         <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -668,49 +666,40 @@
       <c r="F2">
         <v>5</v>
       </c>
-      <c r="G2">
-        <v>1.3</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0.6</v>
-      </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="E3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="1" t="s">
+      <c r="I3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -748,16 +737,16 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -782,6 +771,36 @@
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
     </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/asset/csv/playerData.xlsx
+++ b/asset/csv/playerData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\HAL\就職作品\Stinger\asset\csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{872E5E9C-D2D9-4A03-AF88-46087F7DE9B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C31324A0-E437-4AB1-9008-1BF2C8382564}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2730" yWindow="2025" windowWidth="21585" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>体力</t>
     <rPh sb="0" eb="2">
@@ -223,22 +223,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>回避時の移動速度倍率</t>
-    <rPh sb="0" eb="2">
-      <t>カイヒ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ジ</t>
-    </rPh>
-    <rPh sb="4" eb="8">
-      <t>イドウソクド</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>バイリツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>回避成功時間_最小</t>
     <rPh sb="0" eb="2">
       <t>カイヒ</t>
@@ -264,6 +248,41 @@
     </rPh>
     <rPh sb="7" eb="9">
       <t>サイダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>回避時の最高速度の倍率</t>
+    <rPh sb="0" eb="2">
+      <t>カイヒ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>サイコウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ソクド</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>バイリツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>回避時の速度減衰倍率</t>
+    <rPh sb="0" eb="3">
+      <t>カイヒジ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ソクド</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ゲンスイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>バイリツ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -613,13 +632,13 @@
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="33.625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.75" customWidth="1"/>
     <col min="5" max="6" width="19" bestFit="1" customWidth="1"/>
@@ -658,7 +677,7 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>2000</v>
+        <v>40</v>
       </c>
       <c r="E2">
         <v>2200</v>
@@ -776,29 +795,33 @@
         <v>21</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="2"/>
       <c r="B8" s="2">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="C8" s="2">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="D8" s="2">
         <v>0</v>
       </c>
-      <c r="D8" s="2">
+      <c r="E8" s="2">
         <v>0.6</v>
       </c>
-      <c r="E8" s="2"/>
       <c r="F8" s="2"/>
     </row>
   </sheetData>

--- a/asset/csv/playerData.xlsx
+++ b/asset/csv/playerData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\HAL\就職作品\Stinger\asset\csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C31324A0-E437-4AB1-9008-1BF2C8382564}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1202C872-965E-489E-B170-4741123F8D76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2730" yWindow="2025" windowWidth="21585" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -632,7 +632,7 @@
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -811,7 +811,7 @@
     <row r="8" spans="1:11">
       <c r="A8" s="2"/>
       <c r="B8" s="2">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="C8" s="2">
         <v>0.97499999999999998</v>

--- a/asset/csv/playerData.xlsx
+++ b/asset/csv/playerData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\HAL\就職作品\Stinger\asset\csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1202C872-965E-489E-B170-4741123F8D76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1120F536-E584-4B4A-9BD2-1391CA1A3A47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2730" yWindow="2025" windowWidth="21585" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -631,16 +631,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="15.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.75" customWidth="1"/>
+    <col min="3" max="4" width="33.625" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="19" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="21.875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="31.75" bestFit="1" customWidth="1"/>
@@ -674,7 +673,7 @@
         <v>100</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="D2">
         <v>40</v>
@@ -727,13 +726,13 @@
         <v>10</v>
       </c>
       <c r="C4" s="2">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="D4" s="2">
-        <v>0.3</v>
+        <v>0.35</v>
       </c>
       <c r="E4" s="2">
-        <v>0.5</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="F4" s="2">
         <v>0.8</v>
@@ -748,7 +747,7 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="J4" s="2">
-        <v>0.55000000000000004</v>
+        <v>0.61</v>
       </c>
       <c r="K4" s="2">
         <v>0.72</v>

--- a/asset/csv/playerData.xlsx
+++ b/asset/csv/playerData.xlsx
@@ -5,17 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\HAL\就職作品\Stinger\asset\csv\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\HAL\3\Stinger\asset\csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1120F536-E584-4B4A-9BD2-1391CA1A3A47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4630F8B8-B79C-4F05-9CB3-6000C5E3A00D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2025" windowWidth="21585" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -76,105 +77,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>一段階目ダメージ発生開始時間割合</t>
-    <rPh sb="0" eb="4">
-      <t>イチダンカイメ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ハッセイ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>カイシ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ジカン</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ワリアイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>三段階目ダメージ発生開始時間割合</t>
-    <rPh sb="0" eb="1">
-      <t>サン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>二段階目ダメージ発生開始時間割合</t>
-    <rPh sb="0" eb="1">
-      <t>ニ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>三段階目ダメージ倍率</t>
-    <rPh sb="0" eb="1">
-      <t>サン</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>メ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>二段階目ダメージ倍率</t>
-    <rPh sb="0" eb="1">
-      <t>ニ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>メ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>一段階目ダメージ倍率</t>
-    <rPh sb="0" eb="3">
-      <t>イチダンカイ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>メ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>バイリツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>一段階目キャンセル可能時間割合</t>
-    <rPh sb="0" eb="3">
-      <t>イチダンカイ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>メ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>カノウ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ジカン</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ワリアイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>二段階目キャンセル可能時間割合</t>
-    <rPh sb="0" eb="1">
-      <t>ニ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>三段階目キャンセル可能時間割合</t>
-    <rPh sb="0" eb="1">
-      <t>サン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ブレンド速度</t>
     <rPh sb="4" eb="6">
       <t>ソクド</t>
@@ -212,10 +114,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>速度の減衰値</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>回避</t>
     <rPh sb="0" eb="2">
       <t>カイヒ</t>
@@ -252,7 +150,70 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>回避時の最高速度の倍率</t>
+    <t>一段階目ダメージ_倍率</t>
+    <rPh sb="0" eb="3">
+      <t>イチダンカイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>メバイリツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>二段階目ダメージ_倍率</t>
+    <rPh sb="0" eb="1">
+      <t>ニ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>三段階目ダメージ_倍率</t>
+    <rPh sb="0" eb="1">
+      <t>サン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一段階目キャンセル可能時間_割合</t>
+    <rPh sb="0" eb="3">
+      <t>イチダンカイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ワリアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>二段階目キャンセル可能時間_割合</t>
+    <rPh sb="0" eb="1">
+      <t>ニ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>三段階目キャンセル可能時間_割合</t>
+    <rPh sb="0" eb="1">
+      <t>サン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>回避時の最高速度_倍率</t>
     <rPh sb="0" eb="2">
       <t>カイヒ</t>
     </rPh>
@@ -271,7 +232,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>回避時の速度減衰倍率</t>
+    <t>回避時の速度減衰_倍率</t>
     <rPh sb="0" eb="3">
       <t>カイヒジ</t>
     </rPh>
@@ -281,9 +242,40 @@
     <rPh sb="6" eb="8">
       <t>ゲンスイ</t>
     </rPh>
+    <rPh sb="9" eb="11">
+      <t>バイリツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一段階目ダメージ開始時間_割合</t>
+    <rPh sb="0" eb="4">
+      <t>イチダンカイメ</t>
+    </rPh>
     <rPh sb="8" eb="10">
-      <t>バイリツ</t>
-    </rPh>
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ワリアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>二段階目ダメージ開始時間_割合</t>
+    <rPh sb="0" eb="1">
+      <t>ニ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>三段階目ダメージ開始時間_割合</t>
+    <rPh sb="0" eb="1">
+      <t>サン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>速度の減衰値</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -631,21 +623,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.09765625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="33.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="19" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="31.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="33.59765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.8984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="31.69921875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="35.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="31.75" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.75" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="31.69921875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="31" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -690,34 +683,34 @@
         <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="I3" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -755,16 +748,16 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -791,19 +784,19 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
       <c r="D7" s="1" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="F7" s="1"/>
     </row>

--- a/asset/csv/playerData.xlsx
+++ b/asset/csv/playerData.xlsx
@@ -5,18 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\HAL\3\Stinger\asset\csv\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\HAL\就職作品\Stinger\asset\csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4630F8B8-B79C-4F05-9CB3-6000C5E3A00D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4C8ABE2-858F-4B38-901F-F2ED89D4D4D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="2025" windowWidth="21585" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -624,20 +623,20 @@
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="15.09765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="33.59765625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="33.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.75" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.8984375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="31.69921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="31.75" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="35.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="31.69921875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="31.75" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="31" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -672,7 +671,7 @@
         <v>40</v>
       </c>
       <c r="E2">
-        <v>2200</v>
+        <v>50</v>
       </c>
       <c r="F2">
         <v>5</v>

--- a/asset/csv/playerData.xlsx
+++ b/asset/csv/playerData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\HAL\就職作品\Stinger\asset\csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4C8ABE2-858F-4B38-901F-F2ED89D4D4D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A708BB0-18EF-4E31-8F0E-21E7D4355153}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2730" yWindow="2025" windowWidth="21585" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -623,7 +623,7 @@
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -811,7 +811,7 @@
         <v>0</v>
       </c>
       <c r="E8" s="2">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="F8" s="2"/>
     </row>

--- a/asset/csv/playerData.xlsx
+++ b/asset/csv/playerData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\HAL\就職作品\Stinger\asset\csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A708BB0-18EF-4E31-8F0E-21E7D4355153}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AF8CE51-95E9-413E-8F12-162C00A12B78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2730" yWindow="2025" windowWidth="21585" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -623,7 +623,7 @@
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -665,7 +665,7 @@
         <v>100</v>
       </c>
       <c r="C2">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="D2">
         <v>40</v>

--- a/asset/csv/playerData.xlsx
+++ b/asset/csv/playerData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\HAL\就職作品\Stinger\asset\csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AF8CE51-95E9-413E-8F12-162C00A12B78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17F8CEC1-FE4C-47B7-A3F3-0AA8582F4143}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2730" yWindow="2025" windowWidth="21585" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -622,8 +622,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>

--- a/asset/csv/playerData.xlsx
+++ b/asset/csv/playerData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\HAL\就職作品\Stinger\asset\csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17F8CEC1-FE4C-47B7-A3F3-0AA8582F4143}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E757F840-A366-4BD6-B89E-2DAC3D2DBC79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2730" yWindow="2025" windowWidth="21585" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>体力</t>
     <rPh sb="0" eb="2">
@@ -275,6 +275,32 @@
   </si>
   <si>
     <t>速度の減衰値</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自然回復速度</t>
+    <rPh sb="0" eb="2">
+      <t>シゼン</t>
+    </rPh>
+    <rPh sb="2" eb="6">
+      <t>カイフクソクド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自然回復開始時間</t>
+    <rPh sb="0" eb="2">
+      <t>シゼン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カイフク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ジカン</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -622,8 +648,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -659,6 +685,12 @@
       <c r="F1" t="s">
         <v>4</v>
       </c>
+      <c r="G1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="2" spans="1:11">
       <c r="B2">
@@ -675,6 +707,12 @@
       </c>
       <c r="F2">
         <v>5</v>
+      </c>
+      <c r="G2">
+        <v>7</v>
+      </c>
+      <c r="H2">
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:11">

--- a/asset/csv/playerData.xlsx
+++ b/asset/csv/playerData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\HAL\就職作品\Stinger\asset\csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E757F840-A366-4BD6-B89E-2DAC3D2DBC79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2B64447-3CEE-4A62-B88F-74350B2F2AAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2730" yWindow="2025" windowWidth="21585" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -648,8 +648,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -697,10 +697,10 @@
         <v>100</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="D2">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E2">
         <v>50</v>
@@ -712,7 +712,7 @@
         <v>7</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="3" spans="1:11">

--- a/asset/csv/playerData.xlsx
+++ b/asset/csv/playerData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\HAL\就職作品\Stinger\asset\csv\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\HAL\3\Stinger\asset\csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2B64447-3CEE-4A62-B88F-74350B2F2AAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E38D4996-D6F4-4284-BE0C-510A67593480}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2025" windowWidth="21585" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>体力</t>
     <rPh sb="0" eb="2">
@@ -300,6 +300,20 @@
     </rPh>
     <rPh sb="6" eb="8">
       <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エクストラ攻撃</t>
+    <rPh sb="5" eb="7">
+      <t>コウゲキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ダメージ_倍率</t>
+    <rPh sb="5" eb="7">
+      <t>バイリツ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -646,23 +660,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.09765625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="33.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="33.59765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.69921875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="31.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.8984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="31.69921875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="35.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="31.75" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="31.69921875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="31" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -853,6 +867,21 @@
       </c>
       <c r="F8" s="2"/>
     </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="C10" s="2"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/asset/csv/playerData.xlsx
+++ b/asset/csv/playerData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\HAL\3\Stinger\asset\csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E38D4996-D6F4-4284-BE0C-510A67593480}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBC602C5-90A1-4009-A018-7CB8741E9434}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>体力</t>
     <rPh sb="0" eb="2">
@@ -314,6 +314,65 @@
     <t>ダメージ_倍率</t>
     <rPh sb="5" eb="7">
       <t>バイリツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カットイン時間_最小</t>
+    <rPh sb="5" eb="7">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>サイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カットイン時間_最大</t>
+    <rPh sb="8" eb="10">
+      <t>サイダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>移動時間_最大</t>
+    <rPh sb="0" eb="2">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>サイダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アニメーション速度制御開始時間_割合</t>
+    <rPh sb="7" eb="9">
+      <t>ソクド</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>セイギョ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ワリアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アニメーション速度制御時間_割合</t>
+    <rPh sb="7" eb="9">
+      <t>ソクド</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>セイギョ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -662,8 +721,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -672,8 +731,8 @@
     <col min="2" max="2" width="23.5" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="33.59765625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="31.69921875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.8984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.8984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="31.69921875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="35.5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="31.69921875" bestFit="1" customWidth="1"/>
@@ -874,13 +933,44 @@
       <c r="B9" s="1" t="s">
         <v>29</v>
       </c>
+      <c r="C9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" t="s">
+        <v>33</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="2"/>
       <c r="B10" s="2">
         <v>4.5</v>
       </c>
-      <c r="C10" s="2"/>
+      <c r="C10" s="2">
+        <v>0</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0.38</v>
+      </c>
+      <c r="G10" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H10" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/asset/csv/playerData.xlsx
+++ b/asset/csv/playerData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\HAL\3\Stinger\asset\csv\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\HAL\就職作品\Stinger\asset\csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBC602C5-90A1-4009-A018-7CB8741E9434}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3912033F-05D5-4493-A999-AA46CB2699D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -722,20 +722,20 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="15.09765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="33.59765625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.69921875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="34.8984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="33.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="31" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="31.69921875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="31.75" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="35.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="31.69921875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="31.75" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="31" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -962,7 +962,7 @@
         <v>0.5</v>
       </c>
       <c r="E10" s="2">
-        <v>0.7</v>
+        <v>0.2</v>
       </c>
       <c r="F10" s="2">
         <v>0.38</v>

--- a/asset/csv/playerData.xlsx
+++ b/asset/csv/playerData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\HAL\就職作品\Stinger\asset\csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3912033F-05D5-4493-A999-AA46CB2699D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3685B4B5-DC1D-4049-8550-A708D23C2050}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -721,8 +721,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -953,7 +953,7 @@
     <row r="10" spans="1:11">
       <c r="A10" s="2"/>
       <c r="B10" s="2">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="C10" s="2">
         <v>0</v>

--- a/asset/csv/playerData.xlsx
+++ b/asset/csv/playerData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\HAL\就職作品\Stinger\asset\csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3685B4B5-DC1D-4049-8550-A708D23C2050}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E02DAA3-6B09-4442-84A7-D1BFA2D68690}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -722,7 +722,7 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>

--- a/asset/csv/playerData.xlsx
+++ b/asset/csv/playerData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\HAL\就職作品\Stinger\asset\csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E02DAA3-6B09-4442-84A7-D1BFA2D68690}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E2BA08A-6EDA-4653-A89E-6CE2C8B72042}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>体力</t>
     <rPh sb="0" eb="2">
@@ -348,31 +348,38 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>アニメーション速度制御開始時間_割合</t>
+    <t>カットイン速度制御時間_割合</t>
+    <rPh sb="5" eb="7">
+      <t>ソクド</t>
+    </rPh>
     <rPh sb="7" eb="9">
+      <t>セイギョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カットイン速度制御開始時間_割合</t>
+    <rPh sb="5" eb="7">
       <t>ソクド</t>
     </rPh>
+    <rPh sb="7" eb="9">
+      <t>セイギョ</t>
+    </rPh>
     <rPh sb="9" eb="11">
-      <t>セイギョ</t>
+      <t>カイシ</t>
     </rPh>
     <rPh sb="11" eb="13">
-      <t>カイシ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
       <t>ジカン</t>
     </rPh>
-    <rPh sb="16" eb="18">
+    <rPh sb="14" eb="16">
       <t>ワリアイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>アニメーション速度制御時間_割合</t>
-    <rPh sb="7" eb="9">
-      <t>ソクド</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>セイギョ</t>
+    <t>スロー_倍率</t>
+    <rPh sb="4" eb="6">
+      <t>バイリツ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -721,8 +728,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -731,7 +738,7 @@
     <col min="2" max="2" width="23.5" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="33.625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="31.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="34.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="47.375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="31" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="31.75" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="35.5" bestFit="1" customWidth="1"/>
@@ -943,12 +950,14 @@
         <v>32</v>
       </c>
       <c r="F9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G9" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H9" s="1"/>
+      <c r="H9" s="1" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="2"/>
@@ -968,9 +977,11 @@
         <v>0.38</v>
       </c>
       <c r="G10" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="H10" s="2"/>
+        <v>0.7</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0.08</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/asset/csv/playerData.xlsx
+++ b/asset/csv/playerData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\HAL\就職作品\Stinger\asset\csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E2BA08A-6EDA-4653-A89E-6CE2C8B72042}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DADF1000-B91B-42BF-A16D-B39AA5DDD19E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="2025" windowWidth="21585" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -728,8 +728,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -848,10 +848,10 @@
         <v>0.8</v>
       </c>
       <c r="G4" s="2">
-        <v>1.2</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="H4" s="2">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="I4" s="2">
         <v>0.55000000000000004</v>

--- a/asset/csv/playerData.xlsx
+++ b/asset/csv/playerData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\HAL\就職作品\Stinger\asset\csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DADF1000-B91B-42BF-A16D-B39AA5DDD19E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C4EF028-343F-4826-B672-CE72A927C4E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2025" windowWidth="21585" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -728,8 +728,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -836,7 +836,7 @@
         <v>10</v>
       </c>
       <c r="C4" s="2">
-        <v>0.3</v>
+        <v>0.38</v>
       </c>
       <c r="D4" s="2">
         <v>0.35</v>
@@ -854,10 +854,10 @@
         <v>1.4</v>
       </c>
       <c r="I4" s="2">
-        <v>0.55000000000000004</v>
+        <v>0.71</v>
       </c>
       <c r="J4" s="2">
-        <v>0.61</v>
+        <v>0.71</v>
       </c>
       <c r="K4" s="2">
         <v>0.72</v>

--- a/asset/csv/playerData.xlsx
+++ b/asset/csv/playerData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\HAL\就職作品\Stinger\asset\csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C4EF028-343F-4826-B672-CE72A927C4E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3272D39D-8EF2-419D-AAE2-6914EB241C86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -728,8 +728,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -836,10 +836,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="2">
-        <v>0.38</v>
+        <v>0.45</v>
       </c>
       <c r="D4" s="2">
-        <v>0.35</v>
+        <v>0.41</v>
       </c>
       <c r="E4" s="2">
         <v>0.55000000000000004</v>
